--- a/meta/3-b-2.xlsx
+++ b/meta/3-b-2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A366FC-8A2B-46D1-8C4B-9B2214461FA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.b.2" sheetId="2" r:id="rId1"/>
@@ -159,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +288,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -296,9 +297,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -317,20 +315,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -346,9 +344,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -386,7 +384,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -421,6 +419,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -456,9 +471,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,232 +663,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="48.83984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="57.41796875" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9.15625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" ht="240" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:2" ht="160" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:2" ht="61.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2" ht="107.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B28" r:id="rId3" display="URL:www.oecd.org/dac/stats_x000a_"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B26" r:id="rId3" display="URL:www.oecd.org/dac/stats_x000a_" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToWidth="0" orientation="portrait" r:id="rId4"/>

--- a/meta/3-b-2.xlsx
+++ b/meta/3-b-2.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A366FC-8A2B-46D1-8C4B-9B2214461FA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E70F07A-1C0C-4EAB-A238-ABA1ACC400E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="3.b.2" sheetId="2" r:id="rId1"/>
+    <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -44,34 +54,30 @@
     <t>Организация</t>
   </si>
   <si>
-    <t xml:space="preserve">Министерство финансов КР,  Министерство здравоохранения КР
-</t>
+    <t>Министерство финансов Кыргызской Республики,                              Министерство здравоохранения Кыргызской Республики</t>
   </si>
   <si>
     <t>Контактное лицо (лица) / Координатор</t>
   </si>
   <si>
-    <t>Кенжебаева Чинара Шаршеновна - врио Начальника Управления международного сотрудничества МФ КР</t>
+    <t>ch.kenjebaeva@minfin.kg</t>
   </si>
   <si>
     <t>Электронная почта контактного лица</t>
   </si>
   <si>
-    <t xml:space="preserve">ch.kenjebaeva@minfin.kg </t>
+    <t>МФ: +996-0312-66-20-04</t>
   </si>
   <si>
     <t>Телефон контактного лица</t>
   </si>
   <si>
-    <t>МФ: +996-0312-66-20-04</t>
+    <t>www.minfin.kg</t>
   </si>
   <si>
     <t>Сайт организации (если есть)</t>
   </si>
   <si>
-    <t>www.minfin.kg</t>
-  </si>
-  <si>
     <t>3. Определения и понятия</t>
   </si>
   <si>
@@ -84,13 +90,13 @@
     <t>Основные понятия:</t>
   </si>
   <si>
-    <t>ОПР: Комитет Содействия по Развитию (далее - КСР) определяет ОПР как «те потоки в страны и территории в список КСР получателей ОПР и многосторонних учреждений, которые:  1) предоставлены официальными учреждениями, включая государственные и местные органы власти, или их исполнительными органами; и 2) каждая сделка управляется с поощрением экономического развития и благосостояния развивающихся стран в качестве основной цели.</t>
+    <t>Комитет Содействия по Развитию (далее - КСР) определяет ОПР как «те потоки в страны и территории в список КСР получателей ОПР и многосторонних учреждений, которые:  1) предоставлены официальными учреждениями, включая государственные и местные органы власти, или их исполнительными органами; и 2) каждая сделка управляется с поощрением экономического развития и благосостояния развивающихся стран в качестве основной цели.</t>
   </si>
   <si>
     <t>Обоснование и толкование</t>
   </si>
   <si>
-    <t>Общий объем потоков ОПР в развивающиеся страны оценивает общественные усилия, которые  предоставляют развивающимся странам помощь для медицинских исследований и поддержания минимального уровня здоровья.</t>
+    <t>Общий объем потоков ОПР в развивающиеся страны оценивает общественные усилия, которые предоставляют развивающимся странам помощь для медицинских исследований и поддержания минимального уровня здоровья.</t>
   </si>
   <si>
     <t>4. Источники данных и методы сбора</t>
@@ -105,7 +111,7 @@
     <t>Методы сбора данных</t>
   </si>
   <si>
-    <t>Отчетность по освоению средств, направленных на реализцию проектов государственных инвестиций (ежемесячно), отчетность о ходе реализации проектов государственных инвестиций (ежеквартально)</t>
+    <t>Отчетность по освоению средств, направленных на реализацию проектов государственных инвестиций (ежемесячно), отчетность о ходе реализации проектов государственных инвестиций (ежеквартально)</t>
   </si>
   <si>
     <t>5. Метод расчета и другие методологические основы</t>
@@ -114,15 +120,12 @@
     <t>Метод расчета:</t>
   </si>
   <si>
-    <t>Сумма ОПР поступающая от всех доноров в развивающиеся страны для медицинских исследований и обеспечения поддержания минимального уровня здравоохранения.</t>
+    <t>Сумма ОПР, поступающая от всех доноров в развивающиеся страны для медицинских исследований и обеспечения поддержания минимального уровня здравоохранения.</t>
   </si>
   <si>
     <t>Комментарий и ограничения:</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Гарантия качества:</t>
   </si>
   <si>
@@ -135,7 +138,7 @@
     <t>Доступность данных и пробелы:</t>
   </si>
   <si>
-    <t xml:space="preserve">На донорской основе для всех стран КСР и многих поставщиков, не являющихся КСР (двусторонние и многосторонние), которые отчитываются перед КСР по данным секторального уровня. Основывается на получателях по всем развивающимся странам, имеющим право на ОПР. Статистические данные предоставляются на ежегодной основе. </t>
+    <t>На донорской основе для всех стран КСР и многих поставщиков, не являющихся КСР (двусторонние и многосторонние), которые отчитываются перед КСР по данным секторального уровня. Основывается на получателях по всем развивающимся странам, имеющим право на ОПР. Статистические данные предоставляются на ежегодной основе.</t>
   </si>
   <si>
     <t>Разбивка:</t>
@@ -147,21 +150,20 @@
     <t>7. Сопоставимость с международными данными / стандартами</t>
   </si>
   <si>
-    <t>Применимо</t>
-  </si>
-  <si>
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://www/amp.gov.kg;  www.oecd.org/dac/stats  http://www.oecd.org/dac/stats/methodology.htm 
-</t>
+    <t>https://sustainabledevelopment-kyrgyzstan.github.io
+http://www/amp.gov.kg
+www.oecd.org/dac/stats  
+http://www.oecd.org/dac/stats/methodology.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,71 +176,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -283,55 +233,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{CDC400A3-762F-46A1-9AEA-0489E247882D}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -354,44 +286,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -419,31 +351,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -471,23 +386,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,390 +397,355 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87C479B-D031-4C7F-BBCB-B235E9C3AB9A}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.83984375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="57.41796875" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="9.15625" style="3"/>
+    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="240" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:2" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="12" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="160" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="12" t="s">
+      <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="5" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12" t="s">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="61.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="12" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2" ht="107.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="12" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="12" t="s">
+    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B26" r:id="rId3" display="URL:www.oecd.org/dac/stats_x000a_" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-  </hyperlinks>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" fitToWidth="0" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>